--- a/naming_conventions.xlsx
+++ b/naming_conventions.xlsx
@@ -99,665 +99,84 @@
     <t>PEP8</t>
   </si>
   <si>
-    <r>
-      <t>变量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> / 
-Variable </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>小驼峰</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>没有下划线</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> / 
-camelCase(without underscore) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>整形</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">int: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>以</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 'int' </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开头</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> / 
+    <t xml:space="preserve">变量 / 
+variable </t>
+  </si>
+  <si>
+    <t>小驼峰(没有下划线) / 
+camelCase(without underscore)</t>
+  </si>
+  <si>
+    <t>整形int: 以 'int' 开头 / 
 int: beginning with 'int'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>结构体</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>以</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 'struct' </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>或</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 'para' </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开头</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> / 
-Struct (Structure): beginning with 'struct' or 'para'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>函数句柄: 以handle开头</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> / 
-Function handle: begins with 'handle'
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>实例变量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> / 
-Instance variable</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>以</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>h</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开头</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> /
-Starting with 'h'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>以</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开头</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> / 
-Starts with _ (underscore)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>私有实例变量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> / 
-Private instance variable</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>以</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>__</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开头</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>两个下划线</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> / 
-Begins with __ (two underscores)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>常量，以及全局变量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> / 
-Constants and global variables</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>全部字母大写，用下划线分隔单词</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
+  </si>
+  <si>
+    <t>结构体: 以 'struct' 或 'para' 开头 / 
+struct (Structure): beginning with 'struct' or 'para'</t>
+  </si>
+  <si>
+    <t>函数句柄: 以handle开头 / 
+function handle: begins with 'handle'</t>
+  </si>
+  <si>
+    <t>实例变量 / 
+instance variable</t>
+  </si>
+  <si>
+    <t>以h开头 /
+starting with 'h'</t>
+  </si>
+  <si>
+    <t>以_开头 / 
+starts with _ (underscore)</t>
+  </si>
+  <si>
+    <t>私有实例变量 / 
+private instance variable</t>
+  </si>
+  <si>
+    <t>以__开头 (两个下划线) / 
+begins with __ (two underscores)</t>
+  </si>
+  <si>
+    <t>常量，以及全局变量 / 
+constants and global variables</t>
+  </si>
+  <si>
+    <t>全部字母大写，用下划线分隔单词 / 
 all letters in lowercase, separated by underscores</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>函数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> /
- Function</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>函数名</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小写，用下划线分隔单词</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> / 
-Function name: in lowercase, separated by underscores.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>私有函数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> / 
-Private function</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>以</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>__</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开头</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>两个下划线</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> / 
-Start with __ (two underscores)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>类名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> / 
-Class</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>大驼峰</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不要下划线</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/ 
-Upper Camel Case (no underscores)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>包名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> / 
-Package</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>全部字母小写</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不要下划线</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> / 
+  </si>
+  <si>
+    <t>函数 /
+ function</t>
+  </si>
+  <si>
+    <t>函数名: 小写，用下划线分隔单词 / 
+function name: in lowercase, separated by underscores.</t>
+  </si>
+  <si>
+    <t>私有函数 / 
+private function</t>
+  </si>
+  <si>
+    <t>以__开头 (两个下划线) / 
+start with __ (two underscores)</t>
+  </si>
+  <si>
+    <t>类名 / 
+class</t>
+  </si>
+  <si>
+    <t>大驼峰(不要下划线) / 
+upper Camel Case (no underscores)</t>
+  </si>
+  <si>
+    <t>包名 / 
+package</t>
+  </si>
+  <si>
+    <t>全部字母小写(不要下划线) / 
 all lowercase letters (no underscores)</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -770,7 +189,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -781,7 +200,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -793,12 +212,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
@@ -947,13 +360,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -964,37 +370,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.35"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1185,7 +591,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1240,58 +646,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1441,142 +795,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1585,7 +939,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1594,46 +951,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1989,7 +1346,7 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2007,7 +1364,7 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="22" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2066,176 +1423,187 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="26.6333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.3666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.6333333333333" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.14166666666667" style="1"/>
+    <col min="1" max="1" width="25.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.40833333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.6333333333333" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.14166666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="6"/>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="7"/>
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="6"/>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" ht="31.5" spans="1:4">
-      <c r="A4" s="8" t="s">
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="7"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" ht="28.5" spans="1:5">
+      <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" ht="31.5" spans="1:4">
-      <c r="A5" s="10"/>
-      <c r="B5" s="9" t="s">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" ht="28.5" spans="1:5">
+      <c r="A5" s="11"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" ht="31.5" spans="1:4">
-      <c r="A6" s="10"/>
-      <c r="B6" s="9" t="s">
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" ht="42.75" spans="1:5">
+      <c r="A6" s="11"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" ht="42.75" spans="1:4">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" ht="28.5" spans="1:5">
       <c r="A7" s="11"/>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="6"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" ht="31.5" spans="1:4">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="7"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" ht="28.5" spans="1:5">
       <c r="A9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" ht="47.25" spans="1:4">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" ht="42.75" spans="1:5">
       <c r="A10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" ht="31.5" spans="1:4">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="7"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" ht="42.75" spans="1:5">
       <c r="A12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="6"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" ht="49" customHeight="1" spans="1:4">
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="7"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" ht="49" customHeight="1" spans="1:5">
       <c r="A14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" ht="47.25" spans="1:4">
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" ht="42.75" spans="1:5">
       <c r="A15" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="6"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="6"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" ht="31.5" spans="1:4">
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="7"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="7"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" ht="28.5" spans="1:5">
       <c r="A18" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="6"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" ht="31.5" spans="1:4">
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="7"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" ht="28.5" spans="1:5">
       <c r="A20" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="18"/>
       <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="20"/>
+      <c r="A22" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:A7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Ref: https://zhuanlan.zhihu.com/p/150926389" tooltip="https://zhuanlan.zhihu.com/p/150926389"/>
+    <hyperlink ref="C2" r:id="rId1" display="Ref: https://zhuanlan.zhihu.com/p/150926389" tooltip="https://zhuanlan.zhihu.com/p/150926389"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/naming_conventions.xlsx
+++ b/naming_conventions.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18360" activeTab="1"/>
+    <workbookView windowHeight="19500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="naming_conventions" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,155 +27,384 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
-  <si>
-    <t>Ours</t>
-  </si>
-  <si>
-    <t>Python (PEP8)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>C++</t>
   </si>
   <si>
     <t>Matlab</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>C++</t>
-  </si>
-  <si>
-    <t>Names to Avoid</t>
-  </si>
-  <si>
-    <t> ‘l’ (lowercase letter el), ‘O’ (uppercase letter oh), or ‘I’ (uppercase letter eye)</t>
-  </si>
-  <si>
-    <t>ASCII Compatibility</t>
-  </si>
-  <si>
-    <t>Package Names</t>
-  </si>
-  <si>
-    <t>Module Names</t>
-  </si>
-  <si>
-    <t>Modules should have short, all-lowercase names. Underscores can be used in the module name if it improves readability.</t>
-  </si>
-  <si>
-    <t>Class Names</t>
-  </si>
-  <si>
-    <t>TypeVarable Names</t>
-  </si>
-  <si>
-    <t>Exception Names</t>
-  </si>
-  <si>
-    <t>Global Variable Names</t>
-  </si>
-  <si>
-    <t>Function and Variable Names</t>
-  </si>
-  <si>
-    <t>Function and Method Arguments</t>
-  </si>
-  <si>
-    <t>Method Names and Instance Variables</t>
-  </si>
-  <si>
-    <t>Constants</t>
-  </si>
-  <si>
-    <t>Designing for Inheritance</t>
-  </si>
-  <si>
-    <t>Python</t>
-  </si>
-  <si>
-    <t>Ref: https://zhuanlan.zhihu.com/p/150926389</t>
-  </si>
-  <si>
-    <t>PEP8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">变量 / 
-variable </t>
-  </si>
-  <si>
-    <t>小驼峰(没有下划线) / 
-camelCase(without underscore)</t>
-  </si>
-  <si>
-    <t>整形int: 以 'int' 开头 / 
-int: beginning with 'int'</t>
-  </si>
-  <si>
-    <t>结构体: 以 'struct' 或 'para' 开头 / 
-struct (Structure): beginning with 'struct' or 'para'</t>
-  </si>
-  <si>
-    <t>函数句柄: 以handle开头 / 
-function handle: begins with 'handle'</t>
-  </si>
-  <si>
-    <t>实例变量 / 
+    <t>Additional advice/额外建议</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PEP8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(https://peps.python.org/
+pep-0008/#naming-conventions)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ours</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{example}</t>
+    </r>
+  </si>
+  <si>
+    <t>Ref: 
+(https://zhuanlan.zhihu.com/
+p/150926389)</t>
+  </si>
+  <si>
+    <t>包(模块)名/
+package(module)</t>
+  </si>
+  <si>
+    <t>全部字母小写/ 
+all lowercase letters</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部字母小写
+(必要时候允许下划线)/ 
+all lowercase letters (underscores allowed 
+where necessary)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF65D11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{`my_module`}</t>
+    </r>
+  </si>
+  <si>
+    <t>同我们的Python规则/
+following our rule in Python</t>
+  </si>
+  <si>
+    <t>类名/
+class</t>
+  </si>
+  <si>
+    <t>大驼峰(不要下划线)/
+upper Camel Case 
+(no underscores)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">同PEP8
+/Following PEP8
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{`MyClass`}</t>
+    </r>
+  </si>
+  <si>
+    <t>函数/
+ function</t>
+  </si>
+  <si>
+    <t>函数名: 小写，用下划线分隔单词/ 
+function name: in lowercase, 
+separated by underscores.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">同PEP8
+/Following PEP8
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{`calculate_average`}</t>
+    </r>
+  </si>
+  <si>
+    <t>函数前缀反映其功能：
+get/set, add/remove, create/destroy, start/stop, insert/delete,
+increment/decrement, old/new, begin/end, first/last, up/down, min/max,
+next/previous, old/new, open/close, show/hide, suspend/resume, etc.</t>
+  </si>
+  <si>
+    <t>变量/
+variable</t>
+  </si>
+  <si>
+    <t>小写字母，
+单词之间用下划线分隔/
+lowercase letters,
+ separated by underscores</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小驼峰(没有下划线)/
+camelCase
+(without underscore)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF65D11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{`numOfInput`}</t>
+    </r>
+  </si>
+  <si>
+    <t>同我们的Python规则/
+following our rule in Python
+PS: 必要的时候可以以
+变量类型开头，例如
+{  i) int: beginning with `int`
+ii) struct: beginning with 
+`struct` or `para`
+iii) function handle: 
+beginning with `handle`  }</t>
+  </si>
+  <si>
+    <t>1. 采用布尔变量时，尽量使bool变量为真时继续执行，例如我们要判断一个文件是否找到，我们应该定义bool变量`isFound`，而不是`isNotFound`。我们只需要判断`if isFound`，而不是去判断`if ~isNotFound`
+2. 必要的时候可以以变量类型开头</t>
+  </si>
+  <si>
+    <t>常量和全局变量/
+constants and global variables</t>
+  </si>
+  <si>
+    <t>全部字母大写，
+用下划线分隔单词/
+all letters in lowercase, 
+separated by underscores</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">同PEP8
+/following PEP8
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{`MAX_ITERATIONS`}</t>
+    </r>
+  </si>
+  <si>
+    <t>私有变量(函数)/
+private variable
+(function)</t>
+  </si>
+  <si>
+    <t>以`_`开头 (下划线)/
+begins with `_` (underscores)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">同PEP8
+/following PEP8
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{`_numOfInput`}</t>
+    </r>
+  </si>
+  <si>
+    <t>保护变量(函数)/
+protected variable
+(function)</t>
+  </si>
+  <si>
+    <t>以`__`开头/
+starts with`__` 
+(two underscores)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">同PEP8
+/following PEP8
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{`__numOfInput`}</t>
+    </r>
+  </si>
+  <si>
+    <t>实例变量/
 instance variable</t>
   </si>
   <si>
-    <t>以h开头 /
-starting with 'h'</t>
-  </si>
-  <si>
-    <t>以_开头 / 
-starts with _ (underscore)</t>
-  </si>
-  <si>
-    <t>私有实例变量 / 
-private instance variable</t>
-  </si>
-  <si>
-    <t>以__开头 (两个下划线) / 
-begins with __ (two underscores)</t>
-  </si>
-  <si>
-    <t>常量，以及全局变量 / 
-constants and global variables</t>
-  </si>
-  <si>
-    <t>全部字母大写，用下划线分隔单词 / 
-all letters in lowercase, separated by underscores</t>
-  </si>
-  <si>
-    <t>函数 /
- function</t>
-  </si>
-  <si>
-    <t>函数名: 小写，用下划线分隔单词 / 
-function name: in lowercase, separated by underscores.</t>
-  </si>
-  <si>
-    <t>私有函数 / 
-private function</t>
-  </si>
-  <si>
-    <t>以__开头 (两个下划线) / 
-start with __ (two underscores)</t>
-  </si>
-  <si>
-    <t>类名 / 
-class</t>
-  </si>
-  <si>
-    <t>大驼峰(不要下划线) / 
-upper Camel Case (no underscores)</t>
-  </si>
-  <si>
-    <t>包名 / 
-package</t>
-  </si>
-  <si>
-    <t>全部字母小写(不要下划线) / 
-all lowercase letters (no underscores)</t>
+    <r>
+      <t>以`inst`或者`obj`开头 / 
+starting with`inst` 
+or `obj`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF65D11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{`instNumOfInput` or `objNumOfInput`}</t>
+    </r>
+  </si>
+  <si>
+    <t>以`h`开头 /
+starting with `h`</t>
+  </si>
+  <si>
+    <t>更多小技巧/
+more tips</t>
+  </si>
+  <si>
+    <t>1. Using `if greeting:` instead of `if greeting is True:` or `if greeting == True:`.
+2. 等号前后加空格
+3. 函数注释应使用冒号和箭头(-&gt;)周围始终有空格
+4.</t>
+  </si>
+  <si>
+    <t>1. Matlab中变量不允许以下划线开头
+2. 尽量减少三维Matrix的切片，很费时</t>
   </si>
 </sst>
 </file>
@@ -189,13 +417,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -205,15 +439,29 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Segoe UI"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -360,8 +608,27 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFF65D11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,42 +637,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -591,7 +870,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -603,7 +882,24 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -624,17 +920,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -645,7 +930,9 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -653,19 +940,23 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -673,10 +964,34 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -795,203 +1110,230 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1046,6 +1388,12 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00F76DB1"/>
+      <color rgb="00F65D11"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1312,301 +1660,210 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C13" sqref="C12:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="3" width="35.7083333333333" customWidth="1"/>
-    <col min="4" max="4" width="7.70833333333333" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="1" max="1" width="20.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.4" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.3833333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.225" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35.0916666666667" style="3" customWidth="1"/>
+    <col min="6" max="6" width="50.9583333333333" style="2" customWidth="1"/>
+    <col min="7" max="16383" width="9.14166666666667" style="2"/>
+    <col min="16384" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8">
-      <c r="C1" t="s">
+    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:6">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" ht="47.25" spans="1:6">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="13"/>
     </row>
-    <row r="2" ht="103.5" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>6</v>
-      </c>
+    <row r="3" ht="85.5" spans="1:6">
+      <c r="A3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="13"/>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
+    <row r="4" ht="42.75" spans="1:6">
+      <c r="A4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="13"/>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>8</v>
+    <row r="5" ht="99.75" spans="1:6">
+      <c r="A5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="5" ht="138" spans="1:5">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>10</v>
+    <row r="6" ht="128.25" spans="1:6">
+      <c r="A6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="7" ht="57" spans="1:6">
+      <c r="A7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>11</v>
       </c>
+      <c r="F7" s="13"/>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
+    <row r="8" ht="48" customHeight="1" spans="1:6">
+      <c r="A8" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="13"/>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
+    <row r="9" ht="48" customHeight="1" spans="1:6">
+      <c r="A9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
+    <row r="10" ht="71.25" spans="1:6">
+      <c r="A10" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="13"/>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
+    <row r="11" ht="80" customHeight="1" spans="1:6">
+      <c r="A11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
+      <c r="A12" s="30"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
+      <c r="A13" s="30"/>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
+    <row r="15" spans="1:1">
+      <c r="A15" s="31"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="25.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.40833333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="48.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.6333333333333" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.14166666666667" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="7"/>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="7"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" ht="28.5" spans="1:5">
-      <c r="A4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" ht="28.5" spans="1:5">
-      <c r="A5" s="11"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" ht="42.75" spans="1:5">
-      <c r="A6" s="11"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" ht="28.5" spans="1:5">
-      <c r="A7" s="11"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" ht="28.5" spans="1:5">
-      <c r="A9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" ht="42.75" spans="1:5">
-      <c r="A10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="7"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" ht="42.75" spans="1:5">
-      <c r="A12" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="7"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" ht="49" customHeight="1" spans="1:5">
-      <c r="A14" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" ht="42.75" spans="1:5">
-      <c r="A15" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="7"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="7"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" ht="28.5" spans="1:5">
-      <c r="A18" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="7"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" ht="28.5" spans="1:5">
-      <c r="A20" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="21"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:A7"/>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Ref: https://zhuanlan.zhihu.com/p/150926389" tooltip="https://zhuanlan.zhihu.com/p/150926389"/>
+    <hyperlink ref="E2" r:id="rId1" display="Ref: &#10;(https://zhuanlan.zhihu.com/&#10;p/150926389)" tooltip="https://zhuanlan.zhihu.com/p/150926389"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/naming_conventions.xlsx
+++ b/naming_conventions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="19500"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="naming_conventions" sheetId="2" r:id="rId1"/>
@@ -364,6 +364,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>以`inst`或者`obj`开头 / 
 starting with`inst` 
 or `obj`</t>
@@ -1663,7 +1669,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C12:C13"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
